--- a/extensions/SPI PT100/SPI PT100.xlsx
+++ b/extensions/SPI PT100/SPI PT100.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
